--- a/计划和反思/每周计划模板.xlsx
+++ b/计划和反思/每周计划模板.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="时间安排表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>时间/任务列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,11 @@
   </si>
   <si>
     <t>星期日</t>
+  </si>
+  <si>
+    <t>日期
+时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,14 +96,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -672,4 +696,236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="30.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/计划和反思/每周计划模板.xlsx
+++ b/计划和反思/每周计划模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF96F3AA-2A26-460B-97FD-89B118EC908A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>时间/任务列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,15 +53,11 @@
 时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -703,11 +700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -786,9 +783,6 @@
       <c r="A10" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
